--- a/ccl.xlsx
+++ b/ccl.xlsx
@@ -377,16 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1321"/>
+  <dimension ref="A1:B1322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1311" workbookViewId="0">
-      <selection activeCell="B1322" sqref="B1322"/>
+      <selection activeCell="E1315" sqref="E1315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10955,6 +10955,14 @@
       </c>
       <c r="B1321">
         <v>183.19</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B1322">
+        <v>183.92</v>
       </c>
     </row>
   </sheetData>

--- a/ccl.xlsx
+++ b/ccl.xlsx
@@ -47,13 +47,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,15 +84,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般_CCI&amp;L" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1322"/>
+  <dimension ref="A1:B1331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1311" workbookViewId="0">
-      <selection activeCell="E1315" sqref="E1315"/>
+      <selection activeCell="E1328" sqref="E1328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10963,6 +10977,78 @@
       </c>
       <c r="B1322">
         <v>183.92</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" ht="15.6">
+      <c r="A1323" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>186.07</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="15.6">
+      <c r="A1324" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B1324" s="2">
+        <v>187.41</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" ht="15.6">
+      <c r="A1325" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>188.62</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" ht="15.6">
+      <c r="A1326" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B1326" s="2">
+        <v>189.42</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="15.6">
+      <c r="A1327" s="1">
+        <v>43618</v>
+      </c>
+      <c r="B1327" s="2">
+        <v>188.95</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" ht="15.6">
+      <c r="A1328" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B1328" s="2">
+        <v>186.26</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" ht="15.6">
+      <c r="A1329" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B1329" s="2">
+        <v>187.02</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" ht="15.6">
+      <c r="A1330" s="1">
+        <v>43639</v>
+      </c>
+      <c r="B1330" s="2">
+        <v>187.83</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" ht="15.6">
+      <c r="A1331" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B1331" s="2">
+        <v>190.48</v>
       </c>
     </row>
   </sheetData>

--- a/ccl.xlsx
+++ b/ccl.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony\dev\Other.Workspace\Python.Proj\ccl.data\ccl.data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="96" yWindow="96" windowWidth="28692" windowHeight="12672"/>
   </bookViews>
@@ -43,9 +48,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -84,21 +90,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Percent 2" xfId="5"/>
+    <cellStyle name="一般_Book2" xfId="3"/>
     <cellStyle name="一般_CCI&amp;L" xfId="1"/>
+    <cellStyle name="千分位[0]_CCI&amp;L" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -149,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,9 +210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,6 +245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1331"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1311" workbookViewId="0">
-      <selection activeCell="E1328" sqref="E1328"/>
+      <selection activeCell="A1332" sqref="A1332:B1335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11051,13 +11082,45 @@
         <v>190.48</v>
       </c>
     </row>
+    <row r="1332" spans="1:2" ht="15.6">
+      <c r="A1332" s="1">
+        <v>43653</v>
+      </c>
+      <c r="B1332" s="3">
+        <v>189.77</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" ht="15.6">
+      <c r="A1333" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B1333" s="3">
+        <v>188.94</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" ht="15.6">
+      <c r="A1334" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B1334" s="3">
+        <v>189.43</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" ht="15.6">
+      <c r="A1335" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B1335" s="3">
+        <v>188.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11069,7 +11132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ccl.xlsx
+++ b/ccl.xlsx
@@ -51,7 +51,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -99,14 +99,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -422,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1335"/>
+  <dimension ref="A1:B1342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1311" workbookViewId="0">
-      <selection activeCell="A1332" sqref="A1332:B1335"/>
+      <selection activeCell="D1333" sqref="D1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11112,6 +11113,62 @@
       </c>
       <c r="B1335" s="3">
         <v>188.76</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" ht="15.6">
+      <c r="A1336" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B1336" s="4">
+        <v>188.43</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" ht="15.6">
+      <c r="A1337" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B1337" s="4">
+        <v>188.22</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" ht="15.6">
+      <c r="A1338" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B1338" s="4">
+        <v>188.39</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" ht="15.6">
+      <c r="A1339" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B1339" s="4">
+        <v>187.97</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" ht="15.6">
+      <c r="A1340" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B1340" s="4">
+        <v>185.45</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" ht="15.6">
+      <c r="A1341" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B1341" s="4">
+        <v>184.96</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" ht="15.6">
+      <c r="A1342" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B1342" s="4">
+        <v>183.28</v>
       </c>
     </row>
   </sheetData>

--- a/ccl.xlsx
+++ b/ccl.xlsx
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1342"/>
+  <dimension ref="A1:B1358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1311" workbookViewId="0">
-      <selection activeCell="D1333" sqref="D1333"/>
+    <sheetView tabSelected="1" topLeftCell="A1339" workbookViewId="0">
+      <selection activeCell="G1353" sqref="G1353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11171,8 +11171,137 @@
         <v>183.28</v>
       </c>
     </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B1343">
+        <v>182.66</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B1344">
+        <v>182.24</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B1345">
+        <v>180.98</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B1346">
+        <v>180.32</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B1347">
+        <v>180.07</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B1348">
+        <v>179.01</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B1349">
+        <v>179.4</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B1350">
+        <v>182.1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B1351">
+        <v>181.09</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B1352">
+        <v>181.36</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B1353">
+        <v>179.88</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="A1354" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B1354">
+        <v>179.11</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B1355">
+        <v>179.18</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="A1356" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B1356">
+        <v>177.71</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B1357">
+        <v>178.13</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B1358">
+        <v>176.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ccl.xlsx
+++ b/ccl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony\dev\workspace\Python.Proj\ccl.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55EF83F-77BC-445D-87E8-A4F773BA4DBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C9B7A-5F12-4368-A1A1-529EF8E7F7FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1366"/>
+  <dimension ref="A1:B1370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1339" workbookViewId="0">
-      <selection activeCell="B1367" sqref="B1367"/>
+    <sheetView tabSelected="1" topLeftCell="A1345" workbookViewId="0">
+      <selection activeCell="B1371" sqref="B1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11403,6 +11403,38 @@
       </c>
       <c r="B1366">
         <v>174.94</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B1367">
+        <v>175.41</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B1368">
+        <v>175.56</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B1369">
+        <v>175.51</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B1370">
+        <v>175.43</v>
       </c>
     </row>
   </sheetData>
